--- a/Documentation/Quality/Quality Assurance Checklist/Quality Assurance Checklist.xlsx
+++ b/Documentation/Quality/Quality Assurance Checklist/Quality Assurance Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Response--Law-and-Order_Education\trunk\Documentation\Tables and Diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Response--Law-and-Order_Education\trunk\Documentation\Quality\Quality Assurance Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -890,7 +890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,6 +912,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,18 +1116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,7 +1141,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1159,6 +1152,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,10 +1495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1500,40 +1508,40 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="31"/>
@@ -1612,7 +1620,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="36">
         <v>1.6</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1668,10 +1676,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="44">
         <v>2</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="31"/>
@@ -1735,10 +1743,10 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="44">
         <v>3</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="31"/>
@@ -1789,10 +1797,10 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="44">
         <v>4</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="31"/>
@@ -1948,10 +1956,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1961,40 +1969,40 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="31"/>
@@ -2073,7 +2081,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="36">
         <v>1.6</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -2129,10 +2137,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="44">
         <v>2</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="31"/>
@@ -2197,10 +2205,10 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="44">
         <v>3</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="31"/>
@@ -2251,10 +2259,10 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="44">
         <v>4</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="31"/>
@@ -2413,10 +2421,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -2426,40 +2434,40 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="20"/>
@@ -2552,10 +2560,10 @@
       <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="44">
         <v>2</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="20"/>
@@ -2564,7 +2572,7 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="39">
         <v>2.1</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2662,10 +2670,10 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+      <c r="A20" s="45">
         <v>3</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="20"/>
@@ -2674,7 +2682,7 @@
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="39">
         <v>3.1</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -2772,7 +2780,7 @@
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="39" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -2856,10 +2864,10 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50">
+      <c r="A34" s="45">
         <v>4</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="20"/>
@@ -2868,7 +2876,7 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="39">
         <v>4.0999999999999996</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -2966,7 +2974,7 @@
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="39" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -3050,10 +3058,10 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="50">
+      <c r="A48" s="45">
         <v>5</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C48" s="20"/>
@@ -3062,7 +3070,7 @@
       <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="43">
+      <c r="A49" s="39">
         <v>5.0999999999999996</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -3174,7 +3182,7 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="44">
+      <c r="A57" s="40">
         <v>6</v>
       </c>
       <c r="B57" s="22" t="s">
@@ -3186,7 +3194,7 @@
       <c r="F57" s="23"/>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
+      <c r="A58" s="39">
         <v>6.1</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -3284,7 +3292,7 @@
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="39" t="s">
         <v>109</v>
       </c>
       <c r="B65" s="16" t="s">
@@ -3368,10 +3376,10 @@
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="50">
+      <c r="A71" s="45">
         <v>7</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="20"/>
@@ -3380,7 +3388,7 @@
       <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
+      <c r="A72" s="39">
         <v>7.1</v>
       </c>
       <c r="B72" s="16" t="s">
@@ -3478,7 +3486,7 @@
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="39" t="s">
         <v>117</v>
       </c>
       <c r="B79" s="16" t="s">
@@ -3562,10 +3570,10 @@
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="50">
+      <c r="A85" s="45">
         <v>8</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C85" s="20"/>
@@ -3574,7 +3582,7 @@
       <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="43">
+      <c r="A86" s="39">
         <v>8.1</v>
       </c>
       <c r="B86" s="16" t="s">
@@ -3672,7 +3680,7 @@
       <c r="F92" s="16"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="39" t="s">
         <v>125</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -3765,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="A100:B100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,62 +3787,71 @@
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -3847,8 +3864,9 @@
         <v>89</v>
       </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.2</v>
       </c>
@@ -3861,24 +3879,26 @@
         <v>89</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="43" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2.1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="37" t="s">
         <v>166</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -3887,12 +3907,13 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -3901,8 +3922,9 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>167</v>
       </c>
@@ -3915,8 +3937,9 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -3929,8 +3952,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>169</v>
       </c>
@@ -3943,8 +3967,9 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>170</v>
       </c>
@@ -3957,8 +3982,9 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>171</v>
       </c>
@@ -3971,8 +3997,9 @@
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>172</v>
       </c>
@@ -3985,8 +4012,9 @@
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>173</v>
       </c>
@@ -3999,12 +4027,13 @@
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="37" t="s">
         <v>175</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4013,8 +4042,9 @@
       <c r="D18" s="26"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="54"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -4027,8 +4057,9 @@
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>2.4</v>
       </c>
@@ -4040,9 +4071,10 @@
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="41"/>
+      <c r="G20" s="54"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2.5</v>
       </c>
@@ -4054,10 +4086,11 @@
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="F21" s="41"/>
+      <c r="G21" s="54"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
         <v>2.6</v>
       </c>
       <c r="B22" t="s">
@@ -4069,20 +4102,22 @@
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
         <v>3</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="43" t="s">
         <v>157</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="54"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>3.1</v>
       </c>
@@ -4095,8 +4130,9 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>3.2</v>
       </c>
@@ -4109,8 +4145,9 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>3.3</v>
       </c>
@@ -4123,8 +4160,9 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>3.4</v>
       </c>
@@ -4137,8 +4175,9 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>3.5</v>
       </c>
@@ -4151,8 +4190,9 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="54"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>3.6</v>
       </c>
@@ -4165,24 +4205,26 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="52">
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
         <v>4</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="46" t="s">
         <v>180</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="37" t="s">
         <v>181</v>
       </c>
       <c r="C31" s="30" t="s">
@@ -4191,12 +4233,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>4.2</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="30" t="s">
@@ -4205,8 +4248,9 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="54"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>187</v>
       </c>
@@ -4219,8 +4263,9 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="54"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>188</v>
       </c>
@@ -4233,8 +4278,9 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="54"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>189</v>
       </c>
@@ -4247,8 +4293,9 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="54"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>190</v>
       </c>
@@ -4261,8 +4308,9 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="54"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>191</v>
       </c>
@@ -4275,8 +4323,9 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="54"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>195</v>
       </c>
@@ -4289,8 +4338,9 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="54"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>194</v>
       </c>
@@ -4303,12 +4353,13 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="54"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C40" s="30" t="s">
@@ -4317,8 +4368,9 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="54"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>198</v>
       </c>
@@ -4331,9 +4383,10 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="G41" s="54"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
         <v>200</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -4345,8 +4398,9 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="54"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>202</v>
       </c>
@@ -4359,8 +4413,9 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="54"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>204</v>
       </c>
@@ -4373,8 +4428,9 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="54"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>207</v>
       </c>
@@ -4387,8 +4443,9 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="54"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>209</v>
       </c>
@@ -4401,8 +4458,9 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="54"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>206</v>
       </c>
@@ -4415,8 +4473,9 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G47" s="54"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>4.3</v>
       </c>
@@ -4429,8 +4488,9 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G48" s="54"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>4.4000000000000004</v>
       </c>
@@ -4443,8 +4503,9 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G49" s="54"/>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>4.5</v>
       </c>
@@ -4457,8 +4518,9 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G50" s="54"/>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>4.5999999999999996</v>
       </c>
@@ -4471,8 +4533,9 @@
         <v>89</v>
       </c>
       <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="54"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>4.7</v>
       </c>
@@ -4484,8 +4547,9 @@
         <v>89</v>
       </c>
       <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="54"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>4.8</v>
       </c>
@@ -4498,21 +4562,23 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52">
+      <c r="G53" s="54"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="47">
         <v>5</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="46" t="s">
         <v>214</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
+      <c r="G54" s="54"/>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="39">
         <v>5.0999999999999996</v>
       </c>
       <c r="B55" s="17" t="s">
@@ -4524,12 +4590,13 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="54"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>5.2</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="30" t="s">
@@ -4538,8 +4605,9 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="54"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>216</v>
       </c>
@@ -4552,8 +4620,9 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="54"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>217</v>
       </c>
@@ -4566,8 +4635,9 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="54"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>219</v>
       </c>
@@ -4580,8 +4650,9 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G59" s="54"/>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>220</v>
       </c>
@@ -4594,8 +4665,9 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="54"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>221</v>
       </c>
@@ -4608,8 +4680,9 @@
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="54"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>222</v>
       </c>
@@ -4622,8 +4695,9 @@
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="54"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>223</v>
       </c>
@@ -4636,8 +4710,9 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="54"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>224</v>
       </c>
@@ -4650,8 +4725,9 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="54"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>226</v>
       </c>
@@ -4664,12 +4740,13 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="54"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C66" s="30" t="s">
@@ -4678,8 +4755,9 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="54"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>230</v>
       </c>
@@ -4692,8 +4770,9 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G67" s="54"/>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>229</v>
       </c>
@@ -4706,8 +4785,9 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="54"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>231</v>
       </c>
@@ -4720,8 +4800,9 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="54"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>232</v>
       </c>
@@ -4734,8 +4815,9 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G70" s="54"/>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>5.3</v>
       </c>
@@ -4748,8 +4830,9 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G71" s="54"/>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>5.4</v>
       </c>
@@ -4762,8 +4845,9 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G72" s="54"/>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>5.5</v>
       </c>
@@ -4776,8 +4860,9 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G73" s="54"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>5.6</v>
       </c>
@@ -4790,8 +4875,9 @@
         <v>89</v>
       </c>
       <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G74" s="54"/>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>5.7</v>
       </c>
@@ -4803,8 +4889,9 @@
         <v>89</v>
       </c>
       <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="54"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>5.8</v>
       </c>
@@ -4817,21 +4904,23 @@
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="52">
+      <c r="G76" s="54"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="47">
         <v>6</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="46" t="s">
         <v>252</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="23"/>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="43">
+      <c r="G77" s="54"/>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="39">
         <v>6.1</v>
       </c>
       <c r="B78" s="17" t="s">
@@ -4843,12 +4932,13 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="54"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>6.2</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C79" s="30" t="s">
@@ -4857,8 +4947,9 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="54"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>238</v>
       </c>
@@ -4871,8 +4962,9 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="54"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>239</v>
       </c>
@@ -4885,8 +4977,9 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="54"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>240</v>
       </c>
@@ -4899,8 +4992,9 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="54"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>241</v>
       </c>
@@ -4913,8 +5007,9 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="54"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>242</v>
       </c>
@@ -4927,8 +5022,9 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="54"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>243</v>
       </c>
@@ -4941,8 +5037,9 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="54"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>244</v>
       </c>
@@ -4955,8 +5052,9 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="54"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>245</v>
       </c>
@@ -4969,9 +5067,10 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="43" t="s">
+      <c r="G87" s="54"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
         <v>246</v>
       </c>
       <c r="B88" s="16" t="s">
@@ -4983,12 +5082,13 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="43" t="s">
+      <c r="G88" s="54"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C89" s="30" t="s">
@@ -4997,8 +5097,9 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="54"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>248</v>
       </c>
@@ -5011,9 +5112,10 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="43" t="s">
+      <c r="G90" s="54"/>
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B91" s="16" t="s">
@@ -5025,9 +5127,10 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="43" t="s">
+      <c r="G91" s="54"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="39" t="s">
         <v>250</v>
       </c>
       <c r="B92" s="16" t="s">
@@ -5039,8 +5142,9 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="54"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>251</v>
       </c>
@@ -5053,8 +5157,9 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G93" s="54"/>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>6.3</v>
       </c>
@@ -5067,8 +5172,9 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G94" s="54"/>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>6.4</v>
       </c>
@@ -5081,8 +5187,9 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G95" s="54"/>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>6.5</v>
       </c>
@@ -5095,8 +5202,9 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G96" s="54"/>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>6.6</v>
       </c>
@@ -5109,8 +5217,9 @@
         <v>89</v>
       </c>
       <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G97" s="54"/>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>6.7</v>
       </c>
@@ -5123,8 +5232,9 @@
         <v>89</v>
       </c>
       <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="54"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>6.8</v>
       </c>
@@ -5137,21 +5247,23 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="52">
+      <c r="G99" s="54"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="47">
         <v>7</v>
       </c>
-      <c r="B100" s="51" t="s">
+      <c r="B100" s="46" t="s">
         <v>151</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="23"/>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
+      <c r="G100" s="54"/>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="39">
         <v>7.1</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -5163,12 +5275,13 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="54"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>7.2</v>
       </c>
-      <c r="B102" s="42" t="s">
+      <c r="B102" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C102" s="30" t="s">
@@ -5177,8 +5290,9 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="54"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>254</v>
       </c>
@@ -5191,8 +5305,9 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="54"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>255</v>
       </c>
@@ -5205,8 +5320,9 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="54"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>256</v>
       </c>
@@ -5219,8 +5335,9 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="54"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>257</v>
       </c>
@@ -5233,8 +5350,9 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="54"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>258</v>
       </c>
@@ -5247,9 +5365,10 @@
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="43" t="s">
+      <c r="G107" s="54"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B108" s="17" t="s">
@@ -5261,9 +5380,10 @@
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="43" t="s">
+      <c r="G108" s="54"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="39" t="s">
         <v>260</v>
       </c>
       <c r="B109" s="16" t="s">
@@ -5275,8 +5395,9 @@
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="54"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>261</v>
       </c>
@@ -5289,12 +5410,13 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="54"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C111" s="30" t="s">
@@ -5303,8 +5425,9 @@
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="54"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>263</v>
       </c>
@@ -5317,9 +5440,10 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="43" t="s">
+      <c r="G112" s="54"/>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="39" t="s">
         <v>264</v>
       </c>
       <c r="B113" s="16" t="s">
@@ -5331,8 +5455,9 @@
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="54"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>265</v>
       </c>
@@ -5345,8 +5470,9 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="54"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>266</v>
       </c>
@@ -5359,8 +5485,9 @@
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G115" s="54"/>
+    </row>
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>7.3</v>
       </c>
@@ -5373,8 +5500,9 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G116" s="54"/>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>7.4</v>
       </c>
@@ -5387,8 +5515,9 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G117" s="54"/>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>7.5</v>
       </c>
@@ -5401,9 +5530,10 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="43">
+      <c r="G118" s="54"/>
+    </row>
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="39">
         <v>7.6</v>
       </c>
       <c r="B119" s="17" t="s">
@@ -5415,9 +5545,10 @@
         <v>89</v>
       </c>
       <c r="F119" s="16"/>
-    </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="43">
+      <c r="G119" s="54"/>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="39">
         <v>7.7</v>
       </c>
       <c r="B120" s="17" t="s">
@@ -5429,12 +5560,13 @@
         <v>89</v>
       </c>
       <c r="F120" s="16"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="54"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>7.8</v>
       </c>
-      <c r="B121" s="41" t="s">
+      <c r="B121" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C121" s="30" t="s">
@@ -5443,6 +5575,23 @@
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
+      <c r="G121" s="54"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="54"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="54"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="54"/>
     </row>
     <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/Quality/Quality Assurance Checklist/Quality Assurance Checklist.xlsx
+++ b/Documentation/Quality/Quality Assurance Checklist/Quality Assurance Checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Response--Law-and-Order_Education\trunk\Documentation\Quality\Quality Assurance Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlbel\Desktop\Response--Law-and-Order\Documentation\Quality\Quality Assurance Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface(Dashboard)" sheetId="3" r:id="rId1"/>
@@ -467,15 +467,9 @@
     <t>Are all placeholders used on each input fields?</t>
   </si>
   <si>
-    <t xml:space="preserve">Project name: Command and Control Sub-Headquarters </t>
-  </si>
-  <si>
     <t>USER INTERFACE (Mobile Appplication)</t>
   </si>
   <si>
-    <t>Project name: Command and Control Sub-Headquarters</t>
-  </si>
-  <si>
     <t>FUNCTIONALITY (Dashboard)</t>
   </si>
   <si>
@@ -485,9 +479,6 @@
     <t>National Assessment Form</t>
   </si>
   <si>
-    <t>Project name: Command and Control - NDCC Assessment Forms (Local to National Level)</t>
-  </si>
-  <si>
     <t>DCC Registration Form</t>
   </si>
   <si>
@@ -828,6 +819,15 @@
   </si>
   <si>
     <t>7.2.13</t>
+  </si>
+  <si>
+    <t>Project name: Law and Order - NDCC Assessment Forms (Local to National Level)</t>
+  </si>
+  <si>
+    <t>Project name: Law and Order Sub-Headquarters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project name: Law and Order Sub-Headquarters </t>
   </si>
 </sst>
 </file>
@@ -1152,6 +1152,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,9 +1167,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,20 +1502,20 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="A3" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,20 +1963,20 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="A3" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
@@ -2408,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,20 +2428,20 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="A3" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -3775,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,34 +3788,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="G2" s="54"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="54"/>
+      <c r="A3" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
@@ -3836,27 +3836,27 @@
       <c r="F4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
         <v>1</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="54"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="1"/>
@@ -3864,14 +3864,14 @@
         <v>89</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="54"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="5"/>
@@ -3879,27 +3879,27 @@
         <v>89</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="54"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="54"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2.1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>89</v>
@@ -3907,7 +3907,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="54"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -3922,14 +3922,14 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="54"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>89</v>
@@ -3937,14 +3937,14 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="54"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>89</v>
@@ -3952,14 +3952,14 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="54"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>89</v>
@@ -3967,14 +3967,14 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="54"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>89</v>
@@ -3982,14 +3982,14 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="54"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>89</v>
@@ -3997,14 +3997,14 @@
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="54"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>89</v>
@@ -4012,14 +4012,14 @@
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="54"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>89</v>
@@ -4027,14 +4027,14 @@
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="54"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>89</v>
@@ -4042,7 +4042,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="54"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -4057,14 +4057,14 @@
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="54"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>2.4</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>89</v>
@@ -4072,14 +4072,14 @@
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="54"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2.5</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>89</v>
@@ -4087,14 +4087,14 @@
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="54"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>2.6</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>89</v>
@@ -4102,20 +4102,20 @@
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="54"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
         <v>3</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="54"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
@@ -4130,7 +4130,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="54"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
@@ -4145,7 +4145,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="54"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
@@ -4160,7 +4160,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="54"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
@@ -4175,7 +4175,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="54"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
@@ -4190,7 +4190,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="54"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
@@ -4205,27 +4205,27 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="54"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>4</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="54"/>
+      <c r="G30" s="50"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>4.0999999999999996</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>89</v>
@@ -4233,7 +4233,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="54"/>
+      <c r="G31" s="50"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
@@ -4248,14 +4248,14 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="54"/>
+      <c r="G32" s="50"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>89</v>
@@ -4263,14 +4263,14 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="54"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>89</v>
@@ -4278,14 +4278,14 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="54"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>89</v>
@@ -4293,14 +4293,14 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="54"/>
+      <c r="G35" s="50"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>89</v>
@@ -4308,14 +4308,14 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="54"/>
+      <c r="G36" s="50"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>89</v>
@@ -4323,14 +4323,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="54"/>
+      <c r="G37" s="50"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>89</v>
@@ -4338,14 +4338,14 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="54"/>
+      <c r="G38" s="50"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>89</v>
@@ -4353,14 +4353,14 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="54"/>
+      <c r="G39" s="50"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>89</v>
@@ -4368,14 +4368,14 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="54"/>
+      <c r="G40" s="50"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>89</v>
@@ -4383,14 +4383,14 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="54"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>89</v>
@@ -4398,14 +4398,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="54"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>89</v>
@@ -4413,14 +4413,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="54"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>89</v>
@@ -4428,14 +4428,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="54"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>89</v>
@@ -4443,14 +4443,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="54"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>89</v>
@@ -4458,14 +4458,14 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="54"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>89</v>
@@ -4473,7 +4473,7 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="54"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
@@ -4488,14 +4488,14 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="54"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>4.4000000000000004</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>89</v>
@@ -4503,14 +4503,14 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="54"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>4.5</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>89</v>
@@ -4518,14 +4518,14 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="54"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>4.5999999999999996</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -4533,28 +4533,28 @@
         <v>89</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="54"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>4.7</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="54"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>4.8</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>89</v>
@@ -4562,27 +4562,27 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="54"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47">
         <v>5</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="54"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>5.0999999999999996</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>89</v>
@@ -4590,7 +4590,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="54"/>
+      <c r="G55" s="50"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -4605,14 +4605,14 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="54"/>
+      <c r="G56" s="50"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>89</v>
@@ -4620,14 +4620,14 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="54"/>
+      <c r="G57" s="50"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>89</v>
@@ -4635,14 +4635,14 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="54"/>
+      <c r="G58" s="50"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>89</v>
@@ -4650,14 +4650,14 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="54"/>
+      <c r="G59" s="50"/>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>89</v>
@@ -4665,14 +4665,14 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="54"/>
+      <c r="G60" s="50"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>89</v>
@@ -4680,14 +4680,14 @@
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="54"/>
+      <c r="G61" s="50"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>89</v>
@@ -4695,14 +4695,14 @@
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="54"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>89</v>
@@ -4710,14 +4710,14 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="54"/>
+      <c r="G63" s="50"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>89</v>
@@ -4725,14 +4725,14 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="54"/>
+      <c r="G64" s="50"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>89</v>
@@ -4740,14 +4740,14 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="54"/>
+      <c r="G65" s="50"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>89</v>
@@ -4755,14 +4755,14 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="54"/>
+      <c r="G66" s="50"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C67" s="30" t="s">
         <v>89</v>
@@ -4770,14 +4770,14 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="54"/>
+      <c r="G67" s="50"/>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C68" s="30" t="s">
         <v>89</v>
@@ -4785,14 +4785,14 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="54"/>
+      <c r="G68" s="50"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C69" s="30" t="s">
         <v>89</v>
@@ -4800,14 +4800,14 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="54"/>
+      <c r="G69" s="50"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C70" s="30" t="s">
         <v>89</v>
@@ -4815,7 +4815,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="54"/>
+      <c r="G70" s="50"/>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
@@ -4830,14 +4830,14 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="54"/>
+      <c r="G71" s="50"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>5.4</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C72" s="30" t="s">
         <v>89</v>
@@ -4845,14 +4845,14 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="54"/>
+      <c r="G72" s="50"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>5.5</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C73" s="30" t="s">
         <v>89</v>
@@ -4860,14 +4860,14 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="54"/>
+      <c r="G73" s="50"/>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>5.6</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4875,28 +4875,28 @@
         <v>89</v>
       </c>
       <c r="F74" s="3"/>
-      <c r="G74" s="54"/>
+      <c r="G74" s="50"/>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>5.7</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="54"/>
+      <c r="G75" s="50"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>5.8</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C76" s="30" t="s">
         <v>89</v>
@@ -4904,27 +4904,27 @@
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
-      <c r="G76" s="54"/>
+      <c r="G76" s="50"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="47">
         <v>6</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="23"/>
-      <c r="G77" s="54"/>
+      <c r="G77" s="50"/>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>6.1</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>89</v>
@@ -4932,7 +4932,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="54"/>
+      <c r="G78" s="50"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -4947,14 +4947,14 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="54"/>
+      <c r="G79" s="50"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C80" s="30" t="s">
         <v>89</v>
@@ -4962,14 +4962,14 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="54"/>
+      <c r="G80" s="50"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C81" s="30" t="s">
         <v>89</v>
@@ -4977,14 +4977,14 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="54"/>
+      <c r="G81" s="50"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C82" s="30" t="s">
         <v>89</v>
@@ -4992,14 +4992,14 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="54"/>
+      <c r="G82" s="50"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C83" s="30" t="s">
         <v>89</v>
@@ -5007,14 +5007,14 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="54"/>
+      <c r="G83" s="50"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C84" s="30" t="s">
         <v>89</v>
@@ -5022,14 +5022,14 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="54"/>
+      <c r="G84" s="50"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C85" s="30" t="s">
         <v>89</v>
@@ -5037,14 +5037,14 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="54"/>
+      <c r="G85" s="50"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>89</v>
@@ -5052,14 +5052,14 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="54"/>
+      <c r="G86" s="50"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C87" s="30" t="s">
         <v>89</v>
@@ -5067,14 +5067,14 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="54"/>
+      <c r="G87" s="50"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C88" s="30" t="s">
         <v>89</v>
@@ -5082,14 +5082,14 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="54"/>
+      <c r="G88" s="50"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C89" s="30" t="s">
         <v>89</v>
@@ -5097,14 +5097,14 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="54"/>
+      <c r="G89" s="50"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>89</v>
@@ -5112,14 +5112,14 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="54"/>
+      <c r="G90" s="50"/>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>89</v>
@@ -5127,14 +5127,14 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="54"/>
+      <c r="G91" s="50"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C92" s="30" t="s">
         <v>89</v>
@@ -5142,14 +5142,14 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="54"/>
+      <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93" s="30" t="s">
         <v>89</v>
@@ -5157,7 +5157,7 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="54"/>
+      <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
@@ -5172,14 +5172,14 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="54"/>
+      <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>6.4</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C95" s="30" t="s">
         <v>89</v>
@@ -5187,14 +5187,14 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="54"/>
+      <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>6.5</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>89</v>
@@ -5202,14 +5202,14 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="7"/>
-      <c r="G96" s="54"/>
+      <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>6.6</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -5217,14 +5217,14 @@
         <v>89</v>
       </c>
       <c r="F97" s="7"/>
-      <c r="G97" s="54"/>
+      <c r="G97" s="50"/>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>6.7</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -5232,14 +5232,14 @@
         <v>89</v>
       </c>
       <c r="F98" s="7"/>
-      <c r="G98" s="54"/>
+      <c r="G98" s="50"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>6.8</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C99" s="30" t="s">
         <v>89</v>
@@ -5247,27 +5247,27 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="54"/>
+      <c r="G99" s="50"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="47">
         <v>7</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="23"/>
-      <c r="G100" s="54"/>
+      <c r="G100" s="50"/>
     </row>
     <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>7.1</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>89</v>
@@ -5275,7 +5275,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="54"/>
+      <c r="G101" s="50"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -5290,14 +5290,14 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="54"/>
+      <c r="G102" s="50"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>89</v>
@@ -5305,14 +5305,14 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="54"/>
+      <c r="G103" s="50"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>89</v>
@@ -5320,14 +5320,14 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="54"/>
+      <c r="G104" s="50"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>89</v>
@@ -5335,14 +5335,14 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="54"/>
+      <c r="G105" s="50"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>89</v>
@@ -5350,14 +5350,14 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="54"/>
+      <c r="G106" s="50"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>89</v>
@@ -5365,14 +5365,14 @@
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="54"/>
+      <c r="G107" s="50"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C108" s="30" t="s">
         <v>89</v>
@@ -5380,14 +5380,14 @@
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
-      <c r="G108" s="54"/>
+      <c r="G108" s="50"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C109" s="30" t="s">
         <v>89</v>
@@ -5395,14 +5395,14 @@
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
-      <c r="G109" s="54"/>
+      <c r="G109" s="50"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>89</v>
@@ -5410,14 +5410,14 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="54"/>
+      <c r="G110" s="50"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>89</v>
@@ -5425,14 +5425,14 @@
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="54"/>
+      <c r="G111" s="50"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C112" s="30" t="s">
         <v>89</v>
@@ -5440,14 +5440,14 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="54"/>
+      <c r="G112" s="50"/>
     </row>
     <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C113" s="30" t="s">
         <v>89</v>
@@ -5455,14 +5455,14 @@
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
-      <c r="G113" s="54"/>
+      <c r="G113" s="50"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C114" s="30" t="s">
         <v>89</v>
@@ -5470,14 +5470,14 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="54"/>
+      <c r="G114" s="50"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C115" s="30" t="s">
         <v>89</v>
@@ -5485,7 +5485,7 @@
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="54"/>
+      <c r="G115" s="50"/>
     </row>
     <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
@@ -5500,14 +5500,14 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="54"/>
+      <c r="G116" s="50"/>
     </row>
     <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>7.4</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C117" s="30" t="s">
         <v>89</v>
@@ -5515,14 +5515,14 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="54"/>
+      <c r="G117" s="50"/>
     </row>
     <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>7.5</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C118" s="30" t="s">
         <v>89</v>
@@ -5530,14 +5530,14 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="54"/>
+      <c r="G118" s="50"/>
     </row>
     <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>7.6</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C119" s="30"/>
       <c r="D119" s="16"/>
@@ -5545,14 +5545,14 @@
         <v>89</v>
       </c>
       <c r="F119" s="16"/>
-      <c r="G119" s="54"/>
+      <c r="G119" s="50"/>
     </row>
     <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <v>7.7</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C120" s="30"/>
       <c r="D120" s="16"/>
@@ -5560,14 +5560,14 @@
         <v>89</v>
       </c>
       <c r="F120" s="16"/>
-      <c r="G120" s="54"/>
+      <c r="G120" s="50"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>7.8</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>89</v>
@@ -5575,23 +5575,23 @@
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="54"/>
+      <c r="G121" s="50"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="54"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
+      <c r="A122" s="50"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="54"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
+      <c r="A123" s="50"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
     </row>
     <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
